--- a/documentatie/vergadering/Notule/sjabloon_notulen1 - kopie.xlsx
+++ b/documentatie/vergadering/Notule/sjabloon_notulen1 - kopie.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\Barroc_IT2\Barroc-IT\documentatie\vergadering\Notule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\Barroc_IT\Barroc-IT\documentatie\vergadering\Notule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Onderwerp</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Verslag overleg op</t>
   </si>
   <si>
-    <t>3 Notulen vorige vergadering (d.d. 25-8-2014 tabblad)</t>
-  </si>
-  <si>
     <t xml:space="preserve">8 Vastellen volgende vergadering: </t>
   </si>
   <si>
@@ -65,79 +62,76 @@
     <t>Aanwezig: Ben Smits, Santi Dudok, Jarno Touw</t>
   </si>
   <si>
-    <t>4 samenwerkings overeenkomst.</t>
-  </si>
-  <si>
-    <t>6 het samen stellen van het interview. Dit word gemaakt door de notulist.</t>
-  </si>
-  <si>
-    <t>7 samenstelen van een beright voor de opdrachtgever.</t>
-  </si>
-  <si>
-    <t>5 vragen brain stormen voor de interview.</t>
-  </si>
-  <si>
-    <t>Ben heeft de vergadering geopend en legt uit wat we gaan bespreken</t>
-  </si>
-  <si>
-    <t>agenda bespreken</t>
-  </si>
-  <si>
-    <t>ben</t>
-  </si>
-  <si>
-    <t>10 Huisstijl maken</t>
-  </si>
-  <si>
-    <t>de samenwerkings overreenkomst verder afmaken met de groep</t>
-  </si>
-  <si>
-    <t>Ben en de groep</t>
-  </si>
-  <si>
-    <t>We gaan geen vragen brainstormen dit word gedaan door de notulist</t>
-  </si>
-  <si>
-    <t>notulist gaat een interview maken</t>
-  </si>
-  <si>
-    <t>Notulist Jarno Touw</t>
-  </si>
-  <si>
-    <t>Ben Smits</t>
-  </si>
-  <si>
-    <t>we gaan een bericht samenstellen(ben) die we versturen naar de CEO zodat we ee beetje weten wat er precies aan de hand is</t>
-  </si>
-  <si>
-    <t>ben gaat een bericht samenstellen en die sturen naar de CEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ben heeft gevraagd wanneer de volgende vergadering is </t>
-  </si>
-  <si>
-    <t>as donderdag nieuwe vergadering</t>
-  </si>
-  <si>
-    <t>groep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ben heeft gevraagd wie de samenwerking overenkomst gaat maken hij heeft zelf al een template gemaakt. </t>
-  </si>
-  <si>
-    <t>santi gaat de huistijl template maken</t>
-  </si>
-  <si>
-    <t>santi</t>
-  </si>
-  <si>
-    <t>we hebben besproken dat santi de huistijl gaat maken en we de radius template gebruiken</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
-    <t>geen vragen en opmerkingen meer</t>
+    <t>voorzitter=Ben Smits, Notulist= Santi Dudok</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Plan van aanpak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komt deze week af. </t>
+  </si>
+  <si>
+    <t>wireframes</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Binnen 2 dagen zal het af zijn</t>
+  </si>
+  <si>
+    <t>Santi</t>
+  </si>
+  <si>
+    <t>Moodbord</t>
+  </si>
+  <si>
+    <t>Zal vandaag af kunnen zijn</t>
+  </si>
+  <si>
+    <t>offerte</t>
+  </si>
+  <si>
+    <t>Die is gisteren afgemaakt</t>
+  </si>
+  <si>
+    <t>vaststellen notule</t>
+  </si>
+  <si>
+    <t>Die is goed</t>
+  </si>
+  <si>
+    <t>Die zal deze week af moeten zijn</t>
+  </si>
+  <si>
+    <t>Zal vandaag of morgen klaar zijn</t>
+  </si>
+  <si>
+    <t>Het liefst vandaag af</t>
+  </si>
+  <si>
+    <t>Jarno</t>
+  </si>
+  <si>
+    <t>10 Niet gemaakte dingen</t>
+  </si>
+  <si>
+    <t>Bijgewerkte planing van de eerste 2 weken en planning van het project, alle ontwerpen van het project, acceptatie, fucntionele en technische test maken.</t>
+  </si>
+  <si>
+    <t>Dan hebben we de nieuwe vergadering</t>
+  </si>
+  <si>
+    <t>Deze moeten  deze week af zijn</t>
+  </si>
+  <si>
+    <t>Santi, Ben, Jarno</t>
   </si>
 </sst>
 </file>
@@ -229,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -264,9 +258,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -292,28 +283,32 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -710,7 +705,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,6 +714,7 @@
     <col min="2" max="2" width="56.5546875" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
@@ -744,10 +740,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
@@ -765,10 +761,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="3"/>
@@ -786,10 +782,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3"/>
@@ -853,22 +849,16 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="27" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="27">
-        <v>42983</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -883,10 +873,12 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -904,238 +896,256 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="29">
+        <v>42990</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="25">
+        <v>42990</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="26">
+        <v>42990</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="30">
+        <v>42990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="26">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" spans="1:17" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="B14" s="15">
+        <v>42992</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="26">
+        <v>42990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="30">
+        <v>42990</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="26">
+        <v>42990</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>11</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>13</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
         <v>14</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="28">
-        <v>42983</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="29">
-        <v>42983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
         <v>15</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
         <v>16</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="29">
-        <v>42983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="29">
-        <v>42985</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="29">
-        <v>42983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>11</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <v>12</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
-        <v>13</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
-        <v>14</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
-        <v>15</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
-        <v>16</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1174,12 +1184,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1232,15 +1239,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79336D9A-F347-4BF9-A03C-2F519BF74106}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91946DA-1D0C-4852-AC5F-029A4620CB68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1261,15 +1277,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91946DA-1D0C-4852-AC5F-029A4620CB68}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79336D9A-F347-4BF9-A03C-2F519BF74106}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>